--- a/Fuzzy_Sets_Viewer.xlsx
+++ b/Fuzzy_Sets_Viewer.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="DataSet" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>a</t>
   </si>
@@ -154,13 +154,16 @@
   <si>
     <t>Time (s):</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -226,7 +229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -642,13 +642,57 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -661,43 +705,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -706,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -749,27 +758,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,19 +782,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,40 +791,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -881,16 +836,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -899,7 +857,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,13 +951,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4208,11 +4260,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="175414272"/>
-        <c:axId val="175428352"/>
+        <c:axId val="54801536"/>
+        <c:axId val="54803072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175414272"/>
+        <c:axId val="54801536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.4"/>
@@ -4235,12 +4287,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175428352"/>
+        <c:crossAx val="54803072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175428352"/>
+        <c:axId val="54803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -4264,7 +4316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175414272"/>
+        <c:crossAx val="54801536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4274,7 +4326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -7556,11 +7608,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="54387840"/>
-        <c:axId val="54389376"/>
+        <c:axId val="54704000"/>
+        <c:axId val="54705536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54387840"/>
+        <c:axId val="54704000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.4"/>
@@ -7583,12 +7635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54389376"/>
+        <c:crossAx val="54705536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54389376"/>
+        <c:axId val="54705536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -7612,7 +7664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54387840"/>
+        <c:crossAx val="54704000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7622,7 +7674,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -8477,8 +8529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8494,171 +8546,141 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="28" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="21" customWidth="1"/>
     <col min="16" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="58" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="40" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="U1" s="16" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="U1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:33" ht="24" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="20"/>
+      <c r="V3" s="67"/>
       <c r="W3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="A5" s="16"/>
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="26">
         <v>4</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="28">
-        <v>5</v>
-      </c>
-      <c r="O5" s="28">
-        <v>5</v>
-      </c>
-      <c r="U5" s="23"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="U5" s="16"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="16"/>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="29">
-        <v>1</v>
-      </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="28">
-        <v>1</v>
-      </c>
-      <c r="O6" s="28">
-        <v>1</v>
-      </c>
-      <c r="U6" s="23"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="U6" s="16"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
     </row>
     <row r="7" spans="1:33" ht="18" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="16"/>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="29">
-        <v>1</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="28">
-        <v>2</v>
-      </c>
-      <c r="O7" s="28">
-        <v>2</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
+      <c r="K7" s="22">
+        <v>1</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
+      <c r="U7" s="16"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:33" ht="18" customHeight="1">
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="29">
-        <v>1</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="28">
-        <v>1</v>
-      </c>
-      <c r="O8" s="28">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="60"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
     </row>
     <row r="9" spans="1:33" ht="18" customHeight="1">
       <c r="I9">
         <v>0.2</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="22">
         <v>0.2</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
     </row>
     <row r="10" spans="1:33" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -8686,21 +8708,15 @@
       <c r="I10">
         <v>0.4</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="22">
         <v>0.2</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="U10" s="54"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="2" t="s">
         <v>0</v>
       </c>
@@ -8722,10 +8738,10 @@
       <c r="AB10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
     </row>
     <row r="11" spans="1:33" ht="18" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -8755,24 +8771,18 @@
         <f>1/(B11-C11)</f>
         <v>-2</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="42">
         <v>0.8</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="22">
         <v>0.8</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="28">
-        <v>1</v>
-      </c>
-      <c r="O11" s="28">
-        <v>1</v>
-      </c>
-      <c r="U11" s="55" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="U11" s="37" t="s">
         <v>14</v>
       </c>
       <c r="V11" s="4">
@@ -8799,10 +8809,10 @@
         <f>1/(V11-W11)</f>
         <v>-1.8181818181818181</v>
       </c>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
     </row>
     <row r="12" spans="1:33" ht="18" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -8837,21 +8847,15 @@
       <c r="I12">
         <v>0.3</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="22">
         <v>0.3</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="U12" s="55" t="s">
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="U12" s="37" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="4">
@@ -8880,10 +8884,10 @@
         <f>1/(X12-Y12)</f>
         <v>-1.8181818181818181</v>
       </c>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
     </row>
     <row r="13" spans="1:33" ht="18" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -8914,11 +8918,11 @@
         <f>1/(D13-E13)</f>
         <v>-2</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="43"/>
-      <c r="U13" s="55" t="s">
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="U13" s="37" t="s">
         <v>19</v>
       </c>
       <c r="V13" s="4">
@@ -8946,10 +8950,10 @@
         <f>1/(X13-Y13)</f>
         <v>-1.8181818181818181</v>
       </c>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
     </row>
     <row r="14" spans="1:33" ht="18" customHeight="1">
       <c r="A14" s="15" t="s">
@@ -8981,24 +8985,18 @@
         <f>1/(D14-E14)</f>
         <v>-2</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="23">
         <f>(K5*K9)+(K6*K10)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="28">
-        <v>1.4</v>
-      </c>
-      <c r="O14" s="28">
-        <v>1.4</v>
-      </c>
-      <c r="U14" s="55" t="s">
+      <c r="M14" s="69"/>
+      <c r="U14" s="37" t="s">
         <v>20</v>
       </c>
       <c r="V14" s="4">
@@ -9027,10 +9025,10 @@
         <f>1/(X14-Y14)</f>
         <v>-1.8181818181818181</v>
       </c>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
     </row>
     <row r="15" spans="1:33" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="15" t="s">
@@ -9060,24 +9058,18 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="31">
         <f>(K7*K11)+(K8*K12)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="O15" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="U15" s="55" t="s">
+      <c r="M15" s="71"/>
+      <c r="U15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="V15" s="4">
@@ -9104,96 +9096,66 @@
       <c r="AB15" s="13">
         <v>0</v>
       </c>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
     </row>
-    <row r="16" spans="1:33">
-      <c r="M16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="28">
-        <v>60</v>
-      </c>
-      <c r="O16" s="28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="13:15">
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="59">
-        <v>300</v>
-      </c>
-      <c r="O17" s="28">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="13:15">
-      <c r="M18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="28">
-        <v>20</v>
-      </c>
-      <c r="O18" s="28">
-        <v>65</v>
-      </c>
+    <row r="17" spans="14:14">
+      <c r="N17" s="41"/>
     </row>
     <row r="40" spans="1:34" ht="15.75" thickBot="1"/>
     <row r="41" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="D41" s="21" t="s">
+      <c r="B41" s="54"/>
+      <c r="D41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="G41" s="21" t="s">
+      <c r="E41" s="54"/>
+      <c r="G41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="22"/>
+      <c r="K41" s="54"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="22"/>
+      <c r="N41" s="54"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="21" t="s">
+      <c r="T41" s="18"/>
+      <c r="U41" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="22"/>
-      <c r="X41" s="21" t="s">
+      <c r="V41" s="54"/>
+      <c r="X41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Y41" s="22"/>
-      <c r="AA41" s="21" t="s">
+      <c r="Y41" s="54"/>
+      <c r="AA41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AB41" s="22"/>
+      <c r="AB41" s="54"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="21" t="s">
+      <c r="AD41" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AE41" s="22"/>
+      <c r="AE41" s="54"/>
       <c r="AF41" s="8"/>
-      <c r="AG41" s="21" t="s">
+      <c r="AG41" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AH41" s="22"/>
+      <c r="AH41" s="54"/>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" s="3" t="s">
@@ -9229,7 +9191,7 @@
       <c r="M43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="53" t="str">
+      <c r="N43" s="35" t="str">
         <f>A15</f>
         <v>PM</v>
       </c>
@@ -9238,8 +9200,8 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="56" t="s">
+      <c r="T43" s="41"/>
+      <c r="U43" s="38" t="s">
         <v>34</v>
       </c>
       <c r="V43" s="3" t="str">
@@ -9311,7 +9273,7 @@
       <c r="M44" s="13">
         <v>-2.4</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="24">
         <f t="shared" ref="N44:N75" si="1">IF(M44&lt;=$B$15,0,IF(M44&gt;=$C$15,1,$G$15*(M44-$B$15)))</f>
         <v>0</v>
       </c>
@@ -9320,8 +9282,8 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="57">
+      <c r="T44" s="41"/>
+      <c r="U44" s="39">
         <v>-2.4</v>
       </c>
       <c r="V44" s="6">
@@ -9393,7 +9355,7 @@
       <c r="M45" s="13">
         <v>-2.35</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9402,8 +9364,8 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="57">
+      <c r="T45" s="41"/>
+      <c r="U45" s="39">
         <v>-2.35</v>
       </c>
       <c r="V45" s="6">
@@ -9475,7 +9437,7 @@
       <c r="M46" s="13">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9484,8 +9446,8 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="57">
+      <c r="T46" s="41"/>
+      <c r="U46" s="39">
         <v>-2.2999999999999998</v>
       </c>
       <c r="V46" s="6">
@@ -9557,7 +9519,7 @@
       <c r="M47" s="13">
         <v>-2.25</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9566,8 +9528,8 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="57">
+      <c r="T47" s="41"/>
+      <c r="U47" s="39">
         <v>-2.25</v>
       </c>
       <c r="V47" s="6">
@@ -9639,7 +9601,7 @@
       <c r="M48" s="13">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9648,8 +9610,8 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="57">
+      <c r="T48" s="41"/>
+      <c r="U48" s="39">
         <v>-2.2000000000000002</v>
       </c>
       <c r="V48" s="6">
@@ -9721,7 +9683,7 @@
       <c r="M49" s="13">
         <v>-2.15</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9730,8 +9692,8 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="57">
+      <c r="T49" s="41"/>
+      <c r="U49" s="39">
         <v>-2.15</v>
       </c>
       <c r="V49" s="6">
@@ -9803,7 +9765,7 @@
       <c r="M50" s="13">
         <v>-2.1</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9812,8 +9774,8 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="57">
+      <c r="T50" s="41"/>
+      <c r="U50" s="39">
         <v>-2.1</v>
       </c>
       <c r="V50" s="6">
@@ -9885,7 +9847,7 @@
       <c r="M51" s="13">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9894,8 +9856,8 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="57">
+      <c r="T51" s="41"/>
+      <c r="U51" s="39">
         <v>-2.0499999999999998</v>
       </c>
       <c r="V51" s="6">
@@ -9967,7 +9929,7 @@
       <c r="M52" s="13">
         <v>-2</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9976,8 +9938,8 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="57">
+      <c r="T52" s="41"/>
+      <c r="U52" s="39">
         <v>-2</v>
       </c>
       <c r="V52" s="6">
@@ -10049,7 +10011,7 @@
       <c r="M53" s="13">
         <v>-1.95</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N53" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10058,8 +10020,8 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
-      <c r="T53" s="59"/>
-      <c r="U53" s="57">
+      <c r="T53" s="41"/>
+      <c r="U53" s="39">
         <v>-1.95</v>
       </c>
       <c r="V53" s="6">
@@ -10131,7 +10093,7 @@
       <c r="M54" s="13">
         <v>-1.9</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10140,8 +10102,8 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
-      <c r="T54" s="59"/>
-      <c r="U54" s="57">
+      <c r="T54" s="41"/>
+      <c r="U54" s="39">
         <v>-1.9</v>
       </c>
       <c r="V54" s="6">
@@ -10213,7 +10175,7 @@
       <c r="M55" s="13">
         <v>-1.85</v>
       </c>
-      <c r="N55" s="33">
+      <c r="N55" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10222,8 +10184,8 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="57">
+      <c r="T55" s="41"/>
+      <c r="U55" s="39">
         <v>-1.85</v>
       </c>
       <c r="V55" s="6">
@@ -10295,7 +10257,7 @@
       <c r="M56" s="13">
         <v>-1.8</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10304,8 +10266,8 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="57">
+      <c r="T56" s="41"/>
+      <c r="U56" s="39">
         <v>-1.8</v>
       </c>
       <c r="V56" s="6">
@@ -10377,7 +10339,7 @@
       <c r="M57" s="13">
         <v>-1.75</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10386,8 +10348,8 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="57">
+      <c r="T57" s="41"/>
+      <c r="U57" s="39">
         <v>-1.75</v>
       </c>
       <c r="V57" s="6">
@@ -10459,7 +10421,7 @@
       <c r="M58" s="13">
         <v>-1.7</v>
       </c>
-      <c r="N58" s="33">
+      <c r="N58" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10468,8 +10430,8 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="57">
+      <c r="T58" s="41"/>
+      <c r="U58" s="39">
         <v>-1.7</v>
       </c>
       <c r="V58" s="6">
@@ -10541,7 +10503,7 @@
       <c r="M59" s="13">
         <v>-1.65</v>
       </c>
-      <c r="N59" s="33">
+      <c r="N59" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10550,8 +10512,8 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="57">
+      <c r="T59" s="41"/>
+      <c r="U59" s="39">
         <v>-1.65</v>
       </c>
       <c r="V59" s="6">
@@ -10623,7 +10585,7 @@
       <c r="M60" s="13">
         <v>-1.6</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N60" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10632,8 +10594,8 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="57">
+      <c r="T60" s="41"/>
+      <c r="U60" s="39">
         <v>-1.6</v>
       </c>
       <c r="V60" s="6">
@@ -10705,7 +10667,7 @@
       <c r="M61" s="13">
         <v>-1.55</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10714,8 +10676,8 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="57">
+      <c r="T61" s="41"/>
+      <c r="U61" s="39">
         <v>-1.55</v>
       </c>
       <c r="V61" s="6">
@@ -10787,7 +10749,7 @@
       <c r="M62" s="13">
         <v>-1.5</v>
       </c>
-      <c r="N62" s="33">
+      <c r="N62" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10796,8 +10758,8 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="57">
+      <c r="T62" s="41"/>
+      <c r="U62" s="39">
         <v>-1.5</v>
       </c>
       <c r="V62" s="6">
@@ -10869,7 +10831,7 @@
       <c r="M63" s="13">
         <v>-1.45</v>
       </c>
-      <c r="N63" s="33">
+      <c r="N63" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10878,8 +10840,8 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="57">
+      <c r="T63" s="41"/>
+      <c r="U63" s="39">
         <v>-1.45</v>
       </c>
       <c r="V63" s="6">
@@ -10951,7 +10913,7 @@
       <c r="M64" s="13">
         <v>-1.4</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N64" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10960,8 +10922,8 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="57">
+      <c r="T64" s="41"/>
+      <c r="U64" s="39">
         <v>-1.4</v>
       </c>
       <c r="V64" s="6">
@@ -11033,7 +10995,7 @@
       <c r="M65" s="13">
         <v>-1.35</v>
       </c>
-      <c r="N65" s="33">
+      <c r="N65" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11042,8 +11004,8 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="57">
+      <c r="T65" s="41"/>
+      <c r="U65" s="39">
         <v>-1.35</v>
       </c>
       <c r="V65" s="6">
@@ -11115,7 +11077,7 @@
       <c r="M66" s="13">
         <v>-1.3</v>
       </c>
-      <c r="N66" s="33">
+      <c r="N66" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11124,8 +11086,8 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="57">
+      <c r="T66" s="41"/>
+      <c r="U66" s="39">
         <v>-1.3</v>
       </c>
       <c r="V66" s="6">
@@ -11197,7 +11159,7 @@
       <c r="M67" s="13">
         <v>-1.25</v>
       </c>
-      <c r="N67" s="33">
+      <c r="N67" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11206,8 +11168,8 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="57">
+      <c r="T67" s="41"/>
+      <c r="U67" s="39">
         <v>-1.25</v>
       </c>
       <c r="V67" s="6">
@@ -11279,7 +11241,7 @@
       <c r="M68" s="13">
         <v>-1.2</v>
       </c>
-      <c r="N68" s="33">
+      <c r="N68" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11288,8 +11250,8 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="57">
+      <c r="T68" s="41"/>
+      <c r="U68" s="39">
         <v>-1.2</v>
       </c>
       <c r="V68" s="6">
@@ -11361,7 +11323,7 @@
       <c r="M69" s="13">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="N69" s="33">
+      <c r="N69" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11370,8 +11332,8 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="57">
+      <c r="T69" s="41"/>
+      <c r="U69" s="39">
         <v>-1.1499999999999999</v>
       </c>
       <c r="V69" s="6">
@@ -11443,7 +11405,7 @@
       <c r="M70" s="13">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="N70" s="33">
+      <c r="N70" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11452,8 +11414,8 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="57">
+      <c r="T70" s="41"/>
+      <c r="U70" s="39">
         <v>-1.1000000000000001</v>
       </c>
       <c r="V70" s="6">
@@ -11525,7 +11487,7 @@
       <c r="M71" s="13">
         <v>-1.05</v>
       </c>
-      <c r="N71" s="33">
+      <c r="N71" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11534,8 +11496,8 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="57">
+      <c r="T71" s="41"/>
+      <c r="U71" s="39">
         <v>-1.05</v>
       </c>
       <c r="V71" s="6">
@@ -11607,7 +11569,7 @@
       <c r="M72" s="13">
         <v>-1</v>
       </c>
-      <c r="N72" s="33">
+      <c r="N72" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11616,8 +11578,8 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="57">
+      <c r="T72" s="41"/>
+      <c r="U72" s="39">
         <v>-1</v>
       </c>
       <c r="V72" s="6">
@@ -11689,7 +11651,7 @@
       <c r="M73" s="13">
         <v>-0.95000000000000995</v>
       </c>
-      <c r="N73" s="33">
+      <c r="N73" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11698,8 +11660,8 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="57">
+      <c r="T73" s="41"/>
+      <c r="U73" s="39">
         <v>-0.95000000000000995</v>
       </c>
       <c r="V73" s="6">
@@ -11771,7 +11733,7 @@
       <c r="M74" s="13">
         <v>-0.90000000000001001</v>
       </c>
-      <c r="N74" s="33">
+      <c r="N74" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11780,8 +11742,8 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="57">
+      <c r="T74" s="41"/>
+      <c r="U74" s="39">
         <v>-0.90000000000001001</v>
       </c>
       <c r="V74" s="6">
@@ -11853,7 +11815,7 @@
       <c r="M75" s="13">
         <v>-0.85000000000000997</v>
       </c>
-      <c r="N75" s="33">
+      <c r="N75" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -11862,8 +11824,8 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="57">
+      <c r="T75" s="41"/>
+      <c r="U75" s="39">
         <v>-0.85000000000000997</v>
       </c>
       <c r="V75" s="6">
@@ -11935,7 +11897,7 @@
       <c r="M76" s="13">
         <v>-0.80000000000001004</v>
       </c>
-      <c r="N76" s="33">
+      <c r="N76" s="24">
         <f t="shared" ref="N76:N107" si="10">IF(M76&lt;=$B$15,0,IF(M76&gt;=$C$15,1,$G$15*(M76-$B$15)))</f>
         <v>0</v>
       </c>
@@ -11944,8 +11906,8 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="57">
+      <c r="T76" s="41"/>
+      <c r="U76" s="39">
         <v>-0.80000000000001004</v>
       </c>
       <c r="V76" s="6">
@@ -12017,7 +11979,7 @@
       <c r="M77" s="13">
         <v>-0.75000000000000999</v>
       </c>
-      <c r="N77" s="33">
+      <c r="N77" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12026,8 +11988,8 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
-      <c r="T77" s="59"/>
-      <c r="U77" s="57">
+      <c r="T77" s="41"/>
+      <c r="U77" s="39">
         <v>-0.75000000000000999</v>
       </c>
       <c r="V77" s="6">
@@ -12099,7 +12061,7 @@
       <c r="M78" s="13">
         <v>-0.70000000000000995</v>
       </c>
-      <c r="N78" s="33">
+      <c r="N78" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12108,8 +12070,8 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
-      <c r="T78" s="59"/>
-      <c r="U78" s="57">
+      <c r="T78" s="41"/>
+      <c r="U78" s="39">
         <v>-0.70000000000000995</v>
       </c>
       <c r="V78" s="6">
@@ -12181,7 +12143,7 @@
       <c r="M79" s="13">
         <v>-0.65000000000001001</v>
       </c>
-      <c r="N79" s="33">
+      <c r="N79" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12190,8 +12152,8 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="57">
+      <c r="T79" s="41"/>
+      <c r="U79" s="39">
         <v>-0.65000000000001001</v>
       </c>
       <c r="V79" s="6">
@@ -12263,7 +12225,7 @@
       <c r="M80" s="13">
         <v>-0.60000000000000997</v>
       </c>
-      <c r="N80" s="33">
+      <c r="N80" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12272,8 +12234,8 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="57">
+      <c r="T80" s="41"/>
+      <c r="U80" s="39">
         <v>-0.60000000000000997</v>
       </c>
       <c r="V80" s="6">
@@ -12345,7 +12307,7 @@
       <c r="M81" s="13">
         <v>-0.55000000000001004</v>
       </c>
-      <c r="N81" s="33">
+      <c r="N81" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12354,8 +12316,8 @@
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
-      <c r="T81" s="59"/>
-      <c r="U81" s="57">
+      <c r="T81" s="41"/>
+      <c r="U81" s="39">
         <v>-0.55000000000001004</v>
       </c>
       <c r="V81" s="6">
@@ -12427,7 +12389,7 @@
       <c r="M82" s="13">
         <v>-0.50000000000000999</v>
       </c>
-      <c r="N82" s="33">
+      <c r="N82" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12436,8 +12398,8 @@
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="57">
+      <c r="T82" s="41"/>
+      <c r="U82" s="39">
         <v>-0.50000000000000999</v>
       </c>
       <c r="V82" s="6">
@@ -12509,7 +12471,7 @@
       <c r="M83" s="13">
         <v>-0.45000000000001</v>
       </c>
-      <c r="N83" s="33">
+      <c r="N83" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12518,8 +12480,8 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="57">
+      <c r="T83" s="41"/>
+      <c r="U83" s="39">
         <v>-0.45000000000001</v>
       </c>
       <c r="V83" s="6">
@@ -12591,7 +12553,7 @@
       <c r="M84" s="13">
         <v>-0.40000000000001001</v>
       </c>
-      <c r="N84" s="33">
+      <c r="N84" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12600,8 +12562,8 @@
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="57">
+      <c r="T84" s="41"/>
+      <c r="U84" s="39">
         <v>-0.40000000000001001</v>
       </c>
       <c r="V84" s="6">
@@ -12673,7 +12635,7 @@
       <c r="M85" s="13">
         <v>-0.35000000000001003</v>
       </c>
-      <c r="N85" s="33">
+      <c r="N85" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12682,8 +12644,8 @@
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="57">
+      <c r="T85" s="41"/>
+      <c r="U85" s="39">
         <v>-0.35000000000001003</v>
       </c>
       <c r="V85" s="6">
@@ -12755,7 +12717,7 @@
       <c r="M86" s="13">
         <v>-0.30000000000000998</v>
       </c>
-      <c r="N86" s="33">
+      <c r="N86" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12764,8 +12726,8 @@
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="57">
+      <c r="T86" s="41"/>
+      <c r="U86" s="39">
         <v>-0.30000000000000998</v>
       </c>
       <c r="V86" s="6">
@@ -12837,7 +12799,7 @@
       <c r="M87" s="13">
         <v>-0.25000000000000999</v>
       </c>
-      <c r="N87" s="33">
+      <c r="N87" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12846,8 +12808,8 @@
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="57">
+      <c r="T87" s="41"/>
+      <c r="U87" s="39">
         <v>-0.25000000000000999</v>
       </c>
       <c r="V87" s="6">
@@ -12919,7 +12881,7 @@
       <c r="M88" s="13">
         <v>-0.20000000000001</v>
       </c>
-      <c r="N88" s="33">
+      <c r="N88" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12928,8 +12890,8 @@
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="57">
+      <c r="T88" s="41"/>
+      <c r="U88" s="39">
         <v>-0.20000000000001</v>
       </c>
       <c r="V88" s="6">
@@ -13001,7 +12963,7 @@
       <c r="M89" s="13">
         <v>-0.15000000000000999</v>
       </c>
-      <c r="N89" s="33">
+      <c r="N89" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13010,8 +12972,8 @@
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="57">
+      <c r="T89" s="41"/>
+      <c r="U89" s="39">
         <v>-0.15000000000000999</v>
       </c>
       <c r="V89" s="6">
@@ -13083,7 +13045,7 @@
       <c r="M90" s="13">
         <v>-0.10000000000001</v>
       </c>
-      <c r="N90" s="33">
+      <c r="N90" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13092,8 +13054,8 @@
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="57">
+      <c r="T90" s="41"/>
+      <c r="U90" s="39">
         <v>-0.10000000000001</v>
       </c>
       <c r="V90" s="6">
@@ -13165,7 +13127,7 @@
       <c r="M91" s="13">
         <v>-5.0000000000010002E-2</v>
       </c>
-      <c r="N91" s="33">
+      <c r="N91" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13174,8 +13136,8 @@
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="57">
+      <c r="T91" s="41"/>
+      <c r="U91" s="39">
         <v>-5.0000000000010002E-2</v>
       </c>
       <c r="V91" s="6">
@@ -13247,7 +13209,7 @@
       <c r="M92" s="13">
         <v>-9.7699626167013807E-15</v>
       </c>
-      <c r="N92" s="33">
+      <c r="N92" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13256,8 +13218,8 @@
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="57">
+      <c r="T92" s="41"/>
+      <c r="U92" s="39">
         <v>-9.7699626167013807E-15</v>
       </c>
       <c r="V92" s="6">
@@ -13329,7 +13291,7 @@
       <c r="M93" s="13">
         <v>4.9999999999990101E-2</v>
       </c>
-      <c r="N93" s="33">
+      <c r="N93" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13338,8 +13300,8 @@
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
-      <c r="T93" s="59"/>
-      <c r="U93" s="57">
+      <c r="T93" s="41"/>
+      <c r="U93" s="39">
         <v>4.9999999999990101E-2</v>
       </c>
       <c r="V93" s="6">
@@ -13411,7 +13373,7 @@
       <c r="M94" s="13">
         <v>9.9999999999989903E-2</v>
       </c>
-      <c r="N94" s="33">
+      <c r="N94" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13420,8 +13382,8 @@
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
-      <c r="T94" s="59"/>
-      <c r="U94" s="57">
+      <c r="T94" s="41"/>
+      <c r="U94" s="39">
         <v>9.9999999999989903E-2</v>
       </c>
       <c r="V94" s="6">
@@ -13493,7 +13455,7 @@
       <c r="M95" s="13">
         <v>0.14999999999999</v>
       </c>
-      <c r="N95" s="33">
+      <c r="N95" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13502,8 +13464,8 @@
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
-      <c r="T95" s="59"/>
-      <c r="U95" s="57">
+      <c r="T95" s="41"/>
+      <c r="U95" s="39">
         <v>0.14999999999999</v>
       </c>
       <c r="V95" s="6">
@@ -13575,7 +13537,7 @@
       <c r="M96" s="13">
         <v>0.19999999999998999</v>
       </c>
-      <c r="N96" s="33">
+      <c r="N96" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13584,8 +13546,8 @@
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
-      <c r="T96" s="59"/>
-      <c r="U96" s="57">
+      <c r="T96" s="41"/>
+      <c r="U96" s="39">
         <v>0.19999999999998999</v>
       </c>
       <c r="V96" s="6">
@@ -13657,7 +13619,7 @@
       <c r="M97" s="13">
         <v>0.24999999999999001</v>
       </c>
-      <c r="N97" s="33">
+      <c r="N97" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13666,8 +13628,8 @@
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
-      <c r="T97" s="59"/>
-      <c r="U97" s="57">
+      <c r="T97" s="41"/>
+      <c r="U97" s="39">
         <v>0.24999999999999001</v>
       </c>
       <c r="V97" s="6">
@@ -13739,7 +13701,7 @@
       <c r="M98" s="13">
         <v>0.29999999999999</v>
       </c>
-      <c r="N98" s="33">
+      <c r="N98" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13748,8 +13710,8 @@
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
-      <c r="T98" s="59"/>
-      <c r="U98" s="57">
+      <c r="T98" s="41"/>
+      <c r="U98" s="39">
         <v>0.29999999999999</v>
       </c>
       <c r="V98" s="6">
@@ -13821,7 +13783,7 @@
       <c r="M99" s="13">
         <v>0.34999999999998999</v>
       </c>
-      <c r="N99" s="33">
+      <c r="N99" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13830,8 +13792,8 @@
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
-      <c r="T99" s="59"/>
-      <c r="U99" s="57">
+      <c r="T99" s="41"/>
+      <c r="U99" s="39">
         <v>0.34999999999998999</v>
       </c>
       <c r="V99" s="6">
@@ -13903,7 +13865,7 @@
       <c r="M100" s="13">
         <v>0.39999999999998997</v>
       </c>
-      <c r="N100" s="33">
+      <c r="N100" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13912,8 +13874,8 @@
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
-      <c r="T100" s="59"/>
-      <c r="U100" s="57">
+      <c r="T100" s="41"/>
+      <c r="U100" s="39">
         <v>0.39999999999998997</v>
       </c>
       <c r="V100" s="6">
@@ -13985,7 +13947,7 @@
       <c r="M101" s="13">
         <v>0.44999999999999002</v>
       </c>
-      <c r="N101" s="33">
+      <c r="N101" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13994,8 +13956,8 @@
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
-      <c r="T101" s="59"/>
-      <c r="U101" s="57">
+      <c r="T101" s="41"/>
+      <c r="U101" s="39">
         <v>0.44999999999999002</v>
       </c>
       <c r="V101" s="6">
@@ -14067,7 +14029,7 @@
       <c r="M102" s="13">
         <v>0.49999999999999001</v>
       </c>
-      <c r="N102" s="33">
+      <c r="N102" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -14076,8 +14038,8 @@
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="57">
+      <c r="T102" s="41"/>
+      <c r="U102" s="39">
         <v>0.49999999999999001</v>
       </c>
       <c r="V102" s="6">
@@ -14149,7 +14111,7 @@
       <c r="M103" s="13">
         <v>0.54999999999999005</v>
       </c>
-      <c r="N103" s="33">
+      <c r="N103" s="24">
         <f t="shared" si="10"/>
         <v>9.9999999999980105E-2</v>
       </c>
@@ -14158,8 +14120,8 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="57">
+      <c r="T103" s="41"/>
+      <c r="U103" s="39">
         <v>0.54999999999999005</v>
       </c>
       <c r="V103" s="6">
@@ -14231,7 +14193,7 @@
       <c r="M104" s="13">
         <v>0.59999999999998999</v>
       </c>
-      <c r="N104" s="33">
+      <c r="N104" s="24">
         <f t="shared" si="10"/>
         <v>0.19999999999997997</v>
       </c>
@@ -14240,8 +14202,8 @@
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="57">
+      <c r="T104" s="41"/>
+      <c r="U104" s="39">
         <v>0.59999999999998999</v>
       </c>
       <c r="V104" s="6">
@@ -14313,7 +14275,7 @@
       <c r="M105" s="13">
         <v>0.64999999999999003</v>
       </c>
-      <c r="N105" s="33">
+      <c r="N105" s="24">
         <f t="shared" si="10"/>
         <v>0.29999999999998006</v>
       </c>
@@ -14322,8 +14284,8 @@
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="57">
+      <c r="T105" s="41"/>
+      <c r="U105" s="39">
         <v>0.64999999999999003</v>
       </c>
       <c r="V105" s="6">
@@ -14395,7 +14357,7 @@
       <c r="M106" s="13">
         <v>0.69999999999998996</v>
       </c>
-      <c r="N106" s="33">
+      <c r="N106" s="24">
         <f t="shared" si="10"/>
         <v>0.39999999999997993</v>
       </c>
@@ -14404,8 +14366,8 @@
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
-      <c r="T106" s="59"/>
-      <c r="U106" s="57">
+      <c r="T106" s="41"/>
+      <c r="U106" s="39">
         <v>0.69999999999998996</v>
       </c>
       <c r="V106" s="6">
@@ -14477,7 +14439,7 @@
       <c r="M107" s="13">
         <v>0.74999999999999001</v>
       </c>
-      <c r="N107" s="33">
+      <c r="N107" s="24">
         <f t="shared" si="10"/>
         <v>0.49999999999998002</v>
       </c>
@@ -14486,8 +14448,8 @@
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
-      <c r="T107" s="59"/>
-      <c r="U107" s="57">
+      <c r="T107" s="41"/>
+      <c r="U107" s="39">
         <v>0.74999999999999001</v>
       </c>
       <c r="V107" s="6">
@@ -14559,7 +14521,7 @@
       <c r="M108" s="13">
         <v>0.79999999999999005</v>
       </c>
-      <c r="N108" s="33">
+      <c r="N108" s="24">
         <f t="shared" ref="N108:N128" si="12">IF(M108&lt;=$B$15,0,IF(M108&gt;=$C$15,1,$G$15*(M108-$B$15)))</f>
         <v>0.5999999999999801</v>
       </c>
@@ -14568,8 +14530,8 @@
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
-      <c r="T108" s="59"/>
-      <c r="U108" s="57">
+      <c r="T108" s="41"/>
+      <c r="U108" s="39">
         <v>0.79999999999999005</v>
       </c>
       <c r="V108" s="6">
@@ -14641,7 +14603,7 @@
       <c r="M109" s="13">
         <v>0.84999999999998999</v>
       </c>
-      <c r="N109" s="33">
+      <c r="N109" s="24">
         <f t="shared" si="12"/>
         <v>0.69999999999997997</v>
       </c>
@@ -14650,8 +14612,8 @@
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="57">
+      <c r="T109" s="41"/>
+      <c r="U109" s="39">
         <v>0.84999999999998999</v>
       </c>
       <c r="V109" s="6">
@@ -14723,7 +14685,7 @@
       <c r="M110" s="13">
         <v>0.89999999999999003</v>
       </c>
-      <c r="N110" s="33">
+      <c r="N110" s="24">
         <f t="shared" si="12"/>
         <v>0.79999999999998006</v>
       </c>
@@ -14732,8 +14694,8 @@
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
-      <c r="T110" s="59"/>
-      <c r="U110" s="57">
+      <c r="T110" s="41"/>
+      <c r="U110" s="39">
         <v>0.89999999999999003</v>
       </c>
       <c r="V110" s="6">
@@ -14805,7 +14767,7 @@
       <c r="M111" s="13">
         <v>0.94999999999998996</v>
       </c>
-      <c r="N111" s="33">
+      <c r="N111" s="24">
         <f t="shared" si="12"/>
         <v>0.89999999999997993</v>
       </c>
@@ -14814,8 +14776,8 @@
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="57">
+      <c r="T111" s="41"/>
+      <c r="U111" s="39">
         <v>0.94999999999998996</v>
       </c>
       <c r="V111" s="6">
@@ -14887,7 +14849,7 @@
       <c r="M112" s="13">
         <v>0.99999999999999001</v>
       </c>
-      <c r="N112" s="33">
+      <c r="N112" s="24">
         <f t="shared" si="12"/>
         <v>0.99999999999998002</v>
       </c>
@@ -14896,8 +14858,8 @@
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="57">
+      <c r="T112" s="41"/>
+      <c r="U112" s="39">
         <v>0.99999999999999001</v>
       </c>
       <c r="V112" s="6">
@@ -14969,7 +14931,7 @@
       <c r="M113" s="13">
         <v>1.0499999999999901</v>
       </c>
-      <c r="N113" s="33">
+      <c r="N113" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -14978,8 +14940,8 @@
       <c r="Q113" s="10"/>
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="57">
+      <c r="T113" s="41"/>
+      <c r="U113" s="39">
         <v>1.0499999999999901</v>
       </c>
       <c r="V113" s="6">
@@ -15051,7 +15013,7 @@
       <c r="M114" s="13">
         <v>1.0999999999999901</v>
       </c>
-      <c r="N114" s="33">
+      <c r="N114" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15060,8 +15022,8 @@
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
-      <c r="T114" s="59"/>
-      <c r="U114" s="57">
+      <c r="T114" s="41"/>
+      <c r="U114" s="39">
         <v>1.0999999999999901</v>
       </c>
       <c r="V114" s="6">
@@ -15133,7 +15095,7 @@
       <c r="M115" s="13">
         <v>1.1499999999999899</v>
       </c>
-      <c r="N115" s="33">
+      <c r="N115" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15142,8 +15104,8 @@
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
-      <c r="T115" s="59"/>
-      <c r="U115" s="57">
+      <c r="T115" s="41"/>
+      <c r="U115" s="39">
         <v>1.1499999999999899</v>
       </c>
       <c r="V115" s="6">
@@ -15215,7 +15177,7 @@
       <c r="M116" s="13">
         <v>1.19999999999999</v>
       </c>
-      <c r="N116" s="33">
+      <c r="N116" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15224,8 +15186,8 @@
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
-      <c r="T116" s="59"/>
-      <c r="U116" s="57">
+      <c r="T116" s="41"/>
+      <c r="U116" s="39">
         <v>1.19999999999999</v>
       </c>
       <c r="V116" s="6">
@@ -15297,7 +15259,7 @@
       <c r="M117" s="13">
         <v>1.24999999999999</v>
       </c>
-      <c r="N117" s="33">
+      <c r="N117" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15306,8 +15268,8 @@
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
-      <c r="T117" s="59"/>
-      <c r="U117" s="57">
+      <c r="T117" s="41"/>
+      <c r="U117" s="39">
         <v>1.24999999999999</v>
       </c>
       <c r="V117" s="6">
@@ -15379,7 +15341,7 @@
       <c r="M118" s="13">
         <v>1.2999999999999901</v>
       </c>
-      <c r="N118" s="33">
+      <c r="N118" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15388,8 +15350,8 @@
       <c r="Q118" s="10"/>
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
-      <c r="T118" s="59"/>
-      <c r="U118" s="57">
+      <c r="T118" s="41"/>
+      <c r="U118" s="39">
         <v>1.2999999999999901</v>
       </c>
       <c r="V118" s="6">
@@ -15461,7 +15423,7 @@
       <c r="M119" s="13">
         <v>1.3499999999999901</v>
       </c>
-      <c r="N119" s="33">
+      <c r="N119" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15470,8 +15432,8 @@
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
-      <c r="T119" s="59"/>
-      <c r="U119" s="57">
+      <c r="T119" s="41"/>
+      <c r="U119" s="39">
         <v>1.3499999999999901</v>
       </c>
       <c r="V119" s="6">
@@ -15543,7 +15505,7 @@
       <c r="M120" s="13">
         <v>1.3999999999999899</v>
       </c>
-      <c r="N120" s="33">
+      <c r="N120" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15552,8 +15514,8 @@
       <c r="Q120" s="10"/>
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
-      <c r="T120" s="59"/>
-      <c r="U120" s="57">
+      <c r="T120" s="41"/>
+      <c r="U120" s="39">
         <v>1.3999999999999899</v>
       </c>
       <c r="V120" s="6">
@@ -15625,7 +15587,7 @@
       <c r="M121" s="13">
         <v>1.44999999999999</v>
       </c>
-      <c r="N121" s="33">
+      <c r="N121" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15634,8 +15596,8 @@
       <c r="Q121" s="10"/>
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
-      <c r="T121" s="59"/>
-      <c r="U121" s="57">
+      <c r="T121" s="41"/>
+      <c r="U121" s="39">
         <v>1.44999999999999</v>
       </c>
       <c r="V121" s="6">
@@ -15707,7 +15669,7 @@
       <c r="M122" s="13">
         <v>1.49999999999999</v>
       </c>
-      <c r="N122" s="33">
+      <c r="N122" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15716,8 +15678,8 @@
       <c r="Q122" s="10"/>
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
-      <c r="T122" s="59"/>
-      <c r="U122" s="57">
+      <c r="T122" s="41"/>
+      <c r="U122" s="39">
         <v>1.49999999999999</v>
       </c>
       <c r="V122" s="6">
@@ -15789,7 +15751,7 @@
       <c r="M123" s="13">
         <v>1.5499999999999901</v>
       </c>
-      <c r="N123" s="33">
+      <c r="N123" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15798,8 +15760,8 @@
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
-      <c r="T123" s="59"/>
-      <c r="U123" s="57">
+      <c r="T123" s="41"/>
+      <c r="U123" s="39">
         <v>1.5499999999999901</v>
       </c>
       <c r="V123" s="6">
@@ -15871,7 +15833,7 @@
       <c r="M124" s="13">
         <v>1.5999999999999901</v>
       </c>
-      <c r="N124" s="33">
+      <c r="N124" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15880,8 +15842,8 @@
       <c r="Q124" s="10"/>
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
-      <c r="T124" s="59"/>
-      <c r="U124" s="57">
+      <c r="T124" s="41"/>
+      <c r="U124" s="39">
         <v>1.5999999999999901</v>
       </c>
       <c r="V124" s="6">
@@ -15953,7 +15915,7 @@
       <c r="M125" s="13">
         <v>1.6499999999999899</v>
       </c>
-      <c r="N125" s="33">
+      <c r="N125" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -15962,8 +15924,8 @@
       <c r="Q125" s="10"/>
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
-      <c r="T125" s="59"/>
-      <c r="U125" s="57">
+      <c r="T125" s="41"/>
+      <c r="U125" s="39">
         <v>1.6499999999999899</v>
       </c>
       <c r="V125" s="6">
@@ -16035,7 +15997,7 @@
       <c r="M126" s="13">
         <v>1.69999999999999</v>
       </c>
-      <c r="N126" s="33">
+      <c r="N126" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -16044,8 +16006,8 @@
       <c r="Q126" s="10"/>
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
-      <c r="T126" s="59"/>
-      <c r="U126" s="57">
+      <c r="T126" s="41"/>
+      <c r="U126" s="39">
         <v>1.69999999999999</v>
       </c>
       <c r="V126" s="6">
@@ -16117,7 +16079,7 @@
       <c r="M127" s="13">
         <v>1.74999999999999</v>
       </c>
-      <c r="N127" s="33">
+      <c r="N127" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -16126,8 +16088,8 @@
       <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
-      <c r="T127" s="59"/>
-      <c r="U127" s="57">
+      <c r="T127" s="41"/>
+      <c r="U127" s="39">
         <v>1.74999999999999</v>
       </c>
       <c r="V127" s="6">
@@ -16199,7 +16161,7 @@
       <c r="M128" s="13">
         <v>1.7999999999999901</v>
       </c>
-      <c r="N128" s="33">
+      <c r="N128" s="24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -16208,8 +16170,8 @@
       <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
-      <c r="T128" s="59"/>
-      <c r="U128" s="57">
+      <c r="T128" s="41"/>
+      <c r="U128" s="39">
         <v>1.7999999999999901</v>
       </c>
       <c r="V128" s="6">
@@ -16281,7 +16243,7 @@
       <c r="M129" s="13">
         <v>1.8499999999999801</v>
       </c>
-      <c r="N129" s="33">
+      <c r="N129" s="24">
         <f t="shared" ref="N129:N145" si="23">IF(M129&lt;=$B$15,0,IF(M129&gt;=$C$15,1,$G$15*(M129-$B$15)))</f>
         <v>1</v>
       </c>
@@ -16290,8 +16252,8 @@
       <c r="Q129" s="10"/>
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
-      <c r="T129" s="59"/>
-      <c r="U129" s="57">
+      <c r="T129" s="41"/>
+      <c r="U129" s="39">
         <v>1.8499999999999801</v>
       </c>
       <c r="V129" s="6">
@@ -16363,7 +16325,7 @@
       <c r="M130" s="13">
         <v>1.8999999999999799</v>
       </c>
-      <c r="N130" s="33">
+      <c r="N130" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16372,8 +16334,8 @@
       <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
-      <c r="T130" s="59"/>
-      <c r="U130" s="57">
+      <c r="T130" s="41"/>
+      <c r="U130" s="39">
         <v>1.8999999999999799</v>
       </c>
       <c r="V130" s="6">
@@ -16445,7 +16407,7 @@
       <c r="M131" s="13">
         <v>1.94999999999998</v>
       </c>
-      <c r="N131" s="33">
+      <c r="N131" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16454,8 +16416,8 @@
       <c r="Q131" s="10"/>
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
-      <c r="T131" s="59"/>
-      <c r="U131" s="57">
+      <c r="T131" s="41"/>
+      <c r="U131" s="39">
         <v>1.94999999999998</v>
       </c>
       <c r="V131" s="6">
@@ -16527,7 +16489,7 @@
       <c r="M132" s="13">
         <v>1.99999999999998</v>
       </c>
-      <c r="N132" s="33">
+      <c r="N132" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16536,8 +16498,8 @@
       <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
-      <c r="T132" s="59"/>
-      <c r="U132" s="57">
+      <c r="T132" s="41"/>
+      <c r="U132" s="39">
         <v>1.99999999999998</v>
       </c>
       <c r="V132" s="6">
@@ -16609,7 +16571,7 @@
       <c r="M133" s="13">
         <v>2.0499999999999798</v>
       </c>
-      <c r="N133" s="33">
+      <c r="N133" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16618,8 +16580,8 @@
       <c r="Q133" s="10"/>
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
-      <c r="T133" s="59"/>
-      <c r="U133" s="57">
+      <c r="T133" s="41"/>
+      <c r="U133" s="39">
         <v>2.0499999999999798</v>
       </c>
       <c r="V133" s="6">
@@ -16691,7 +16653,7 @@
       <c r="M134" s="13">
         <v>2.0999999999999801</v>
       </c>
-      <c r="N134" s="33">
+      <c r="N134" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16700,8 +16662,8 @@
       <c r="Q134" s="10"/>
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
-      <c r="T134" s="59"/>
-      <c r="U134" s="57">
+      <c r="T134" s="41"/>
+      <c r="U134" s="39">
         <v>2.0999999999999801</v>
       </c>
       <c r="V134" s="6">
@@ -16773,7 +16735,7 @@
       <c r="M135" s="13">
         <v>2.1499999999999799</v>
       </c>
-      <c r="N135" s="33">
+      <c r="N135" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16782,8 +16744,8 @@
       <c r="Q135" s="10"/>
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
-      <c r="T135" s="59"/>
-      <c r="U135" s="57">
+      <c r="T135" s="41"/>
+      <c r="U135" s="39">
         <v>2.1499999999999799</v>
       </c>
       <c r="V135" s="6">
@@ -16855,7 +16817,7 @@
       <c r="M136" s="13">
         <v>2.1999999999999802</v>
       </c>
-      <c r="N136" s="33">
+      <c r="N136" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16864,8 +16826,8 @@
       <c r="Q136" s="10"/>
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
-      <c r="T136" s="59"/>
-      <c r="U136" s="57">
+      <c r="T136" s="41"/>
+      <c r="U136" s="39">
         <v>2.1999999999999802</v>
       </c>
       <c r="V136" s="6">
@@ -16937,7 +16899,7 @@
       <c r="M137" s="13">
         <v>2.24999999999998</v>
       </c>
-      <c r="N137" s="33">
+      <c r="N137" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -16946,8 +16908,8 @@
       <c r="Q137" s="10"/>
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
-      <c r="T137" s="59"/>
-      <c r="U137" s="57">
+      <c r="T137" s="41"/>
+      <c r="U137" s="39">
         <v>2.24999999999998</v>
       </c>
       <c r="V137" s="6">
@@ -17019,7 +16981,7 @@
       <c r="M138" s="13">
         <v>2.2999999999999798</v>
       </c>
-      <c r="N138" s="33">
+      <c r="N138" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17028,8 +16990,8 @@
       <c r="Q138" s="10"/>
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
-      <c r="T138" s="59"/>
-      <c r="U138" s="57">
+      <c r="T138" s="41"/>
+      <c r="U138" s="39">
         <v>2.2999999999999798</v>
       </c>
       <c r="V138" s="6">
@@ -17101,7 +17063,7 @@
       <c r="M139" s="13">
         <v>2.3499999999999801</v>
       </c>
-      <c r="N139" s="33">
+      <c r="N139" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17110,8 +17072,8 @@
       <c r="Q139" s="10"/>
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
-      <c r="T139" s="59"/>
-      <c r="U139" s="57">
+      <c r="T139" s="41"/>
+      <c r="U139" s="39">
         <v>2.3499999999999801</v>
       </c>
       <c r="V139" s="6">
@@ -17183,7 +17145,7 @@
       <c r="M140" s="13">
         <v>2.3999999999999799</v>
       </c>
-      <c r="N140" s="33">
+      <c r="N140" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17192,8 +17154,8 @@
       <c r="Q140" s="10"/>
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
-      <c r="T140" s="59"/>
-      <c r="U140" s="57">
+      <c r="T140" s="41"/>
+      <c r="U140" s="39">
         <v>2.3999999999999799</v>
       </c>
       <c r="V140" s="6">
@@ -17265,7 +17227,7 @@
       <c r="M141" s="13">
         <v>2.4499999999999802</v>
       </c>
-      <c r="N141" s="33">
+      <c r="N141" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17274,8 +17236,8 @@
       <c r="Q141" s="10"/>
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
-      <c r="T141" s="59"/>
-      <c r="U141" s="57">
+      <c r="T141" s="41"/>
+      <c r="U141" s="39">
         <v>2.4499999999999802</v>
       </c>
       <c r="V141" s="6">
@@ -17347,7 +17309,7 @@
       <c r="M142" s="13">
         <v>2.49999999999998</v>
       </c>
-      <c r="N142" s="33">
+      <c r="N142" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17356,8 +17318,8 @@
       <c r="Q142" s="10"/>
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
-      <c r="T142" s="59"/>
-      <c r="U142" s="57">
+      <c r="T142" s="41"/>
+      <c r="U142" s="39">
         <v>2.49999999999998</v>
       </c>
       <c r="V142" s="6">
@@ -17429,7 +17391,7 @@
       <c r="M143" s="13">
         <v>2.5499999999999798</v>
       </c>
-      <c r="N143" s="33">
+      <c r="N143" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17438,8 +17400,8 @@
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
-      <c r="T143" s="59"/>
-      <c r="U143" s="57">
+      <c r="T143" s="41"/>
+      <c r="U143" s="39">
         <v>2.5499999999999798</v>
       </c>
       <c r="V143" s="6">
@@ -17511,7 +17473,7 @@
       <c r="M144" s="13">
         <v>2.5999999999999801</v>
       </c>
-      <c r="N144" s="33">
+      <c r="N144" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17520,8 +17482,8 @@
       <c r="Q144" s="10"/>
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
-      <c r="T144" s="59"/>
-      <c r="U144" s="57">
+      <c r="T144" s="41"/>
+      <c r="U144" s="39">
         <v>2.5999999999999801</v>
       </c>
       <c r="V144" s="6">
@@ -17593,7 +17555,7 @@
       <c r="M145" s="13">
         <v>2.6499999999999799</v>
       </c>
-      <c r="N145" s="33">
+      <c r="N145" s="24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
@@ -17602,8 +17564,8 @@
       <c r="Q145" s="10"/>
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
-      <c r="T145" s="59"/>
-      <c r="U145" s="57">
+      <c r="T145" s="41"/>
+      <c r="U145" s="39">
         <v>2.6499999999999799</v>
       </c>
       <c r="V145" s="6">
@@ -17643,24 +17605,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L5:M13"/>
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AG41:AH41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17670,515 +17632,868 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U14" sqref="T1:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="28"/>
+    <col min="2" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="19" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="67">
+      <c r="B1" s="48">
         <v>4</v>
       </c>
-      <c r="C1" s="73">
+      <c r="C1" s="48">
+        <v>4</v>
+      </c>
+      <c r="D1" s="48">
+        <v>4</v>
+      </c>
+      <c r="E1" s="48">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48">
+        <v>4</v>
+      </c>
+      <c r="G1" s="48">
+        <v>4</v>
+      </c>
+      <c r="H1" s="77">
+        <v>4</v>
+      </c>
+      <c r="I1" s="87">
+        <v>4</v>
+      </c>
+      <c r="J1" s="83">
+        <v>4</v>
+      </c>
+      <c r="K1" s="48">
+        <v>4</v>
+      </c>
+      <c r="L1" s="48">
+        <v>4</v>
+      </c>
+      <c r="M1" s="48">
+        <v>4</v>
+      </c>
+      <c r="N1" s="48">
+        <v>4</v>
+      </c>
+      <c r="O1" s="48">
+        <v>4</v>
+      </c>
+      <c r="P1" s="48">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="48">
+        <v>4</v>
+      </c>
+      <c r="R1" s="48">
+        <v>4</v>
+      </c>
+      <c r="S1" s="48">
+        <v>4</v>
+      </c>
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" s="49">
+        <v>1</v>
+      </c>
+      <c r="G2" s="49">
+        <v>1</v>
+      </c>
+      <c r="H2" s="78">
+        <v>1</v>
+      </c>
+      <c r="I2" s="88">
+        <v>1</v>
+      </c>
+      <c r="J2" s="52">
+        <v>1</v>
+      </c>
+      <c r="K2" s="49">
+        <v>1</v>
+      </c>
+      <c r="L2" s="52">
+        <v>1</v>
+      </c>
+      <c r="M2" s="49">
+        <v>1</v>
+      </c>
+      <c r="N2" s="52">
+        <v>1</v>
+      </c>
+      <c r="O2" s="49">
+        <v>1</v>
+      </c>
+      <c r="P2" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="49">
+        <v>1</v>
+      </c>
+      <c r="R2" s="52">
+        <v>1</v>
+      </c>
+      <c r="S2" s="49">
+        <v>1</v>
+      </c>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="75">
+        <v>4</v>
+      </c>
+      <c r="H3" s="79">
+        <v>3</v>
+      </c>
+      <c r="I3" s="75">
+        <v>2</v>
+      </c>
+      <c r="J3" s="52">
+        <v>2</v>
+      </c>
+      <c r="K3" s="49">
+        <v>2</v>
+      </c>
+      <c r="L3" s="52">
+        <v>2</v>
+      </c>
+      <c r="M3" s="49">
+        <v>2</v>
+      </c>
+      <c r="N3" s="52">
+        <v>2</v>
+      </c>
+      <c r="O3" s="49">
+        <v>2</v>
+      </c>
+      <c r="P3" s="52">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>2</v>
+      </c>
+      <c r="R3" s="52">
+        <v>2</v>
+      </c>
+      <c r="S3" s="49">
+        <v>2</v>
+      </c>
+      <c r="U3" s="21"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78">
+        <v>1</v>
+      </c>
+      <c r="I4" s="88">
+        <v>1</v>
+      </c>
+      <c r="J4" s="52">
+        <v>1</v>
+      </c>
+      <c r="K4" s="49">
+        <v>1</v>
+      </c>
+      <c r="L4" s="52">
+        <v>1</v>
+      </c>
+      <c r="M4" s="49">
+        <v>1</v>
+      </c>
+      <c r="N4" s="52">
+        <v>1</v>
+      </c>
+      <c r="O4" s="49">
+        <v>1</v>
+      </c>
+      <c r="P4" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>1</v>
+      </c>
+      <c r="R4" s="52">
+        <v>1</v>
+      </c>
+      <c r="S4" s="49">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="N5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="21"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="N6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="49">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1</v>
+      </c>
+      <c r="H7" s="78">
+        <v>1</v>
+      </c>
+      <c r="I7" s="88">
+        <v>1</v>
+      </c>
+      <c r="J7" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="49">
+        <v>1</v>
+      </c>
+      <c r="L7" s="49">
+        <v>1</v>
+      </c>
+      <c r="M7" s="49">
+        <v>1</v>
+      </c>
+      <c r="N7" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="49">
+        <v>1</v>
+      </c>
+      <c r="P7" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>1</v>
+      </c>
+      <c r="R7" s="49">
+        <v>1</v>
+      </c>
+      <c r="S7" s="49">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="49">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49">
+        <v>1</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>1</v>
+      </c>
+      <c r="H8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="88">
+        <v>1</v>
+      </c>
+      <c r="J8" s="84">
+        <v>1</v>
+      </c>
+      <c r="K8" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="49">
+        <v>1</v>
+      </c>
+      <c r="M8" s="49">
+        <v>1</v>
+      </c>
+      <c r="N8" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="49">
+        <v>1</v>
+      </c>
+      <c r="P8" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>1</v>
+      </c>
+      <c r="R8" s="49">
+        <v>1</v>
+      </c>
+      <c r="S8" s="49">
+        <v>1</v>
+      </c>
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="43"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="51"/>
+      <c r="U9" s="21"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="50">
+        <f t="shared" ref="B10:H10" si="0">(B1*B5)+(B2*B6)</f>
         <v>5</v>
       </c>
-      <c r="D1" s="67">
+      <c r="C10" s="50">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E1" s="73">
+      <c r="D10" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="50">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="50">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="81">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="90">
+        <f>(I1*I5)+(I2*I6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="45">
+        <f t="shared" ref="J10:S10" si="1">(J1*J5)+(J2*K6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="50">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="45">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="M10" s="50">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="N10" s="45">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="O10" s="50">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="45">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q10" s="50">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="R10" s="45">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="S10" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="51">
+        <f t="shared" ref="B11:H11" si="2">(B3*B7)+(B4*B8)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="51">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F1" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1" s="73">
-        <v>5</v>
-      </c>
-      <c r="H1" s="67">
-        <v>5</v>
-      </c>
-      <c r="I1" s="73">
-        <v>5</v>
-      </c>
-      <c r="J1" s="67">
-        <v>5</v>
-      </c>
-      <c r="K1" s="73">
-        <v>5</v>
-      </c>
-      <c r="L1" s="67">
-        <v>5</v>
-      </c>
+      <c r="H11" s="80">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="89">
+        <f>(I3*I7)+(I4*I8)</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11:S11" si="3">(J3*J7)+(J4*J8)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="51">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M11" s="51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S11" s="51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U11" s="21"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="68">
-        <v>1</v>
-      </c>
-      <c r="C2" s="74">
-        <v>1</v>
-      </c>
-      <c r="D2" s="68">
-        <v>1</v>
-      </c>
-      <c r="E2" s="74">
-        <v>1</v>
-      </c>
-      <c r="F2" s="68">
-        <v>1</v>
-      </c>
-      <c r="G2" s="74">
-        <v>1</v>
-      </c>
-      <c r="H2" s="68">
-        <v>1</v>
-      </c>
-      <c r="I2" s="74">
-        <v>1</v>
-      </c>
-      <c r="J2" s="68">
-        <v>1</v>
-      </c>
-      <c r="K2" s="74">
-        <v>1</v>
-      </c>
-      <c r="L2" s="68">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:21">
+      <c r="A12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="51">
+        <v>60</v>
+      </c>
+      <c r="C12" s="51">
+        <v>60</v>
+      </c>
+      <c r="D12" s="51">
+        <v>60</v>
+      </c>
+      <c r="E12" s="51">
+        <v>60</v>
+      </c>
+      <c r="F12" s="51">
+        <v>60</v>
+      </c>
+      <c r="G12" s="51">
+        <v>60</v>
+      </c>
+      <c r="H12" s="80">
+        <v>60</v>
+      </c>
+      <c r="I12" s="89">
+        <v>60</v>
+      </c>
+      <c r="J12" s="28">
+        <v>60</v>
+      </c>
+      <c r="K12" s="51">
+        <v>60</v>
+      </c>
+      <c r="L12" s="51">
+        <v>60</v>
+      </c>
+      <c r="M12" s="51">
+        <v>60</v>
+      </c>
+      <c r="N12" s="51">
+        <v>60</v>
+      </c>
+      <c r="O12" s="51">
+        <v>60</v>
+      </c>
+      <c r="P12" s="51">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="51">
+        <v>60</v>
+      </c>
+      <c r="R12" s="51">
+        <v>60</v>
+      </c>
+      <c r="S12" s="51">
+        <v>60</v>
+      </c>
+      <c r="U12" s="21"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="68">
-        <v>1</v>
-      </c>
-      <c r="C3" s="74">
-        <v>2</v>
-      </c>
-      <c r="D3" s="68">
-        <v>2</v>
-      </c>
-      <c r="E3" s="74">
-        <v>2</v>
-      </c>
-      <c r="F3" s="68">
-        <v>2</v>
-      </c>
-      <c r="G3" s="74">
-        <v>2</v>
-      </c>
-      <c r="H3" s="68">
-        <v>2</v>
-      </c>
-      <c r="I3" s="74">
-        <v>2</v>
-      </c>
-      <c r="J3" s="68">
-        <v>2</v>
-      </c>
-      <c r="K3" s="74">
-        <v>2</v>
-      </c>
-      <c r="L3" s="68">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:21">
+      <c r="A13" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="72">
+        <v>100</v>
+      </c>
+      <c r="C13" s="74">
+        <v>300</v>
+      </c>
+      <c r="D13" s="72">
+        <v>100</v>
+      </c>
+      <c r="E13" s="72">
+        <v>100</v>
+      </c>
+      <c r="F13" s="72">
+        <v>100</v>
+      </c>
+      <c r="G13" s="72">
+        <v>100</v>
+      </c>
+      <c r="H13" s="82">
+        <v>100</v>
+      </c>
+      <c r="I13" s="89">
+        <v>100</v>
+      </c>
+      <c r="J13" s="86">
+        <v>100</v>
+      </c>
+      <c r="K13" s="72">
+        <v>100</v>
+      </c>
+      <c r="L13" s="72">
+        <v>100</v>
+      </c>
+      <c r="M13" s="72">
+        <v>100</v>
+      </c>
+      <c r="N13" s="72">
+        <v>100</v>
+      </c>
+      <c r="O13" s="74">
+        <v>300</v>
+      </c>
+      <c r="P13" s="72">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="72">
+        <v>100</v>
+      </c>
+      <c r="R13" s="72">
+        <v>100</v>
+      </c>
+      <c r="S13" s="72">
+        <v>100</v>
+      </c>
+      <c r="U13" s="21"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="68">
-        <v>1</v>
-      </c>
-      <c r="C4" s="74">
-        <v>1</v>
-      </c>
-      <c r="D4" s="68">
-        <v>1</v>
-      </c>
-      <c r="E4" s="74">
-        <v>1</v>
-      </c>
-      <c r="F4" s="68">
-        <v>1</v>
-      </c>
-      <c r="G4" s="74">
-        <v>1</v>
-      </c>
-      <c r="H4" s="68">
-        <v>1</v>
-      </c>
-      <c r="I4" s="74">
-        <v>1</v>
-      </c>
-      <c r="J4" s="68">
-        <v>1</v>
-      </c>
-      <c r="K4" s="74">
-        <v>1</v>
-      </c>
-      <c r="L4" s="68">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="10">
+        <v>19.849</v>
+      </c>
+      <c r="C14" s="10">
+        <v>25.222999999999999</v>
+      </c>
+      <c r="D14" s="10">
+        <v>19.306000000000001</v>
+      </c>
+      <c r="E14" s="10">
+        <v>19.504000000000001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>16.22</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="91">
+        <v>15.603</v>
+      </c>
+      <c r="J14" s="10">
+        <v>15.79</v>
+      </c>
+      <c r="K14" s="10">
+        <v>15.766999999999999</v>
+      </c>
+      <c r="L14" s="10">
+        <v>35.524999999999999</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="10">
+        <v>16.169</v>
+      </c>
+      <c r="O14" s="10">
+        <v>20.974</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="U14" s="21"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="68">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="I6" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="L6" s="68">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="C7" s="74">
-        <v>1</v>
-      </c>
-      <c r="D7" s="68">
-        <v>1</v>
-      </c>
-      <c r="E7" s="74">
-        <v>1</v>
-      </c>
-      <c r="F7" s="68">
-        <v>1</v>
-      </c>
-      <c r="G7" s="74">
-        <v>1</v>
-      </c>
-      <c r="H7" s="68">
-        <v>1</v>
-      </c>
-      <c r="I7" s="74">
-        <v>1</v>
-      </c>
-      <c r="J7" s="68">
-        <v>1</v>
-      </c>
-      <c r="K7" s="74">
-        <v>1</v>
-      </c>
-      <c r="L7" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="C8" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="I8" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="J8" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="L8" s="68">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="61"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="70"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="69">
-        <f>(B1*B5)+(B2*B6)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="63">
-        <f t="shared" ref="C10:L10" si="0">(C1*C5)+(C2*D6)</f>
-        <v>1.4</v>
-      </c>
-      <c r="D10" s="69">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="E10" s="63">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="69">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="63">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="H10" s="69">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="I10" s="63">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="J10" s="69">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="K10" s="63">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="L10" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="70">
-        <f>(B3*B7)+(B4*B8)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" ref="C11:L11" si="1">(C3*C7)+(C4*C8)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D11" s="70">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="F11" s="70">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="H11" s="70">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="J11" s="70">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="L11" s="70">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="70">
-        <v>60</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="10">
-        <v>60</v>
-      </c>
-      <c r="L12" s="70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="71">
-        <v>300</v>
-      </c>
-      <c r="C13" s="64">
-        <v>300</v>
-      </c>
-      <c r="D13" s="71">
-        <v>300</v>
-      </c>
-      <c r="E13" s="64">
-        <v>300</v>
-      </c>
-      <c r="F13" s="71">
-        <v>300</v>
-      </c>
-      <c r="G13" s="64">
-        <v>300</v>
-      </c>
-      <c r="H13" s="71">
-        <v>300</v>
-      </c>
-      <c r="I13" s="64">
-        <v>300</v>
-      </c>
-      <c r="J13" s="71">
-        <v>300</v>
-      </c>
-      <c r="K13" s="64">
-        <v>300</v>
-      </c>
-      <c r="L13" s="75">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="76">
-        <v>39</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="72">
-        <v>20</v>
-      </c>
-      <c r="L14" s="76">
-        <v>65</v>
-      </c>
+    <row r="15" spans="1:21">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
